--- a/biology/Botanique/Haute-vallée-de-l'orb/Haute-vallée-de-l'orb.xlsx
+++ b/biology/Botanique/Haute-vallée-de-l'orb/Haute-vallée-de-l'orb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haute-vall%C3%A9e-de-l%27orb</t>
+          <t>Haute-vallée-de-l'orb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vin Haute-vallée-de-l'orb, anciennement « appellation vin de Pays de la Haute-vallée-de-l'orb », est un vin français d'indication géographique protégée de zone, produit dans le département de l'Hérault.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haute-vall%C3%A9e-de-l%27orb</t>
+          <t>Haute-vallée-de-l'orb</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de la vigne dans cette zone est ancienne. En effet, la vigne a été introduite dès l'antiquité. 
 Au Moyen Âge, les moines des communes de Joncels et Villemagne développent la culture de la vigne sur les coteaux. L'agriculture reste cependant diversifiée : agriculture vivrière, céréales, élevage, vigne et  chataigne. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Haute-vall%C3%A9e-de-l%27orb</t>
+          <t>Haute-vallée-de-l'orb</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +563,96 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire de l'IGP
-Zone principale[N 1]
-Les communes de l'Hérault
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Zone principale[N 1]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les communes de l'Hérault
 32 communes sont concernées dans l'Hérault : Les Aires, Avène, Bédarieux, Le Bousquet-d'Orb, Camplong, Carlencas-et-Levas, Colombières-sur-Orb, Combes, Dio-et-Valquières, Graissessac, Hérépian, Joncels, Lamalou-les-Bains, Lunas, Mons, Olargues, Pézènes-les-Mines, Le Poujol-sur-Orb, Le Pradal, Prémian, Roquebrun, Rosis, Saint-Étienne-d'Albagnan, Saint-Étienne-Estréchoux, Saint-Gervais-sur-Mare, Saint-Julien, Saint-Martin-de-l'Arçon, Saint-Vincent-d'Olargues, Taussac-la-Billière, La Tour-sur-Orb, Vieussan et Villemagne-l'Argentière.
-Zone de proximité immédiate[N 2]
-25 communes sont concernées dans l'Hérault : Ceilhes-et-Rocozels, Roqueredonde, Les Plans, Lodève, Lavalette, Octon, Brenas, Mérifons, Salasc, Valmascle, Montesquieu, Faugères, Fos, Roquessels, Cabrerolles, Saint-Nazaire-de-Ladarez, Causses-et-Veyran, Cessenon, Berlou, Ferrières-Poussarou, Riols, Fraisse-sur-Agout, Cambon-et-Salvergues, Castanet-le-Haut, Saint-Geniès-de-Varensal.
-Orographie et géologie
-Il existe une grande diversité de sol au sein de la zone. Sept unités pédo-paysagères ont ainsi été identifiées:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zone de proximité immédiate[N 2]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 communes sont concernées dans l'Hérault : Ceilhes-et-Rocozels, Roqueredonde, Les Plans, Lodève, Lavalette, Octon, Brenas, Mérifons, Salasc, Valmascle, Montesquieu, Faugères, Fos, Roquessels, Cabrerolles, Saint-Nazaire-de-Ladarez, Causses-et-Veyran, Cessenon, Berlou, Ferrières-Poussarou, Riols, Fraisse-sur-Agout, Cambon-et-Salvergues, Castanet-le-Haut, Saint-Geniès-de-Varensal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orographie et géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une grande diversité de sol au sein de la zone. Sept unités pédo-paysagères ont ainsi été identifiées:
 Plateaux sur formation volcanique,
 Collines sur substrat métamorphique,
 Versant sur grès et marne,
@@ -565,64 +661,216 @@
 Plaines colluviales récentes,
 Grès acide.
 Malgré cette diversité, la vigne a un comportement homogène.
-Climat
-La zone est dominée par un mésoclimat méditerranéen attenué. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone est dominée par un mésoclimat méditerranéen attenué. 
 La pluviométrie moyenne annuelle sur la zone est comprise entre 800 et 1200 mm.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Haute-vall%C3%A9e-de-l%27orb</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Présentation
-Conditions de production
-Encépagement
-Cépages noirs
-Les variétés noires utilisées sont :  le Cabernet franc N, le Cabernet Sauvignon N, le Carignan N, le Cinsault N, le Cot N, le Grenache N, le Marselan N, le Merlot N, le Morrastel N, le Mourvèdre N, le Muscat à petits grains rouges Rg, le Petit verdot N, le Pinot noir N, le Syrah N, le Tempranillo N, et le Terret noir N.
-Cépages grisés
-Les variétés grisées utilisées sont :  le Grenache gris G et le Terret gris G.
-Cépages blancs
-Les variétés blanches utilisées sont : le Bourboulenc B, le Carignan blanc B, le Chardonnay B, le Chasan B, le Clairette B, le Grenache blanc B, le Macabeu B, le Marsanne B, le Muscat à petits grains blancs B, le Roussanne B, le Sauvignon B, le Terret blanc B, le Vermentino B et le Viognier B.
-Types de vin
-Il existe 12 labellisations différentes :
-Haute Vallée de l'Orb blanc[1]
-Haute Vallée de l'Orb rosé[2]
-Haute Vallée de l'Orb rouge[3]
-Haute Vallée de l'Orb mousseux de qualité blanc[4]
-Haute Vallée de l'Orb mousseux de qualité rosé[5]
-Haute Vallée de l'Orb mousseux de qualité rouge[6]
-Haute Vallée de l'Orb primeur ou nouveau blanc[7]
-Haute Vallée de l'Orb primeur ou nouveau rosé[8]
-Haute Vallée de l'Orb primeur ou nouveau rouge[9]
-Haute Vallée de l'Orb surmûri blanc[10]
-Haute Vallée de l'Orb surmûri rosé[11]
-Haute Vallée de l'Orb surmûri rouge[12]
-Vin et gastronomie
-Production et structure des exploitations</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cépages noirs</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés noires utilisées sont :  le Cabernet franc N, le Cabernet Sauvignon N, le Carignan N, le Cinsault N, le Cot N, le Grenache N, le Marselan N, le Merlot N, le Morrastel N, le Mourvèdre N, le Muscat à petits grains rouges Rg, le Petit verdot N, le Pinot noir N, le Syrah N, le Tempranillo N, et le Terret noir N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cépages grisés</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés grisées utilisées sont :  le Grenache gris G et le Terret gris G.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cépages blancs</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés blanches utilisées sont : le Bourboulenc B, le Carignan blanc B, le Chardonnay B, le Chasan B, le Clairette B, le Grenache blanc B, le Macabeu B, le Marsanne B, le Muscat à petits grains blancs B, le Roussanne B, le Sauvignon B, le Terret blanc B, le Vermentino B et le Viognier B.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Haute-vallée-de-l'orb</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haute-vall%C3%A9e-de-l%27orb</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Il existe 12 labellisations différentes :
+Haute Vallée de l'Orb blanc
+Haute Vallée de l'Orb rosé
+Haute Vallée de l'Orb rouge
+Haute Vallée de l'Orb mousseux de qualité blanc
+Haute Vallée de l'Orb mousseux de qualité rosé
+Haute Vallée de l'Orb mousseux de qualité rouge
+Haute Vallée de l'Orb primeur ou nouveau blanc
+Haute Vallée de l'Orb primeur ou nouveau rosé
+Haute Vallée de l'Orb primeur ou nouveau rouge
+Haute Vallée de l'Orb surmûri blanc
+Haute Vallée de l'Orb surmûri rosé
+Haute Vallée de l'Orb surmûri rouge</t>
         </is>
       </c>
     </row>
